--- a/InvitedTalks.xlsx
+++ b/InvitedTalks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Sites/badgeserver.onsite/xltozoom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C637F-F25C-BD46-A73A-387B682F1529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FEC3C1-64F8-9843-A9E9-D0FEDC038A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="7240" windowWidth="42900" windowHeight="12000" xr2:uid="{24F3A499-F06E-3E44-802A-A6BEBE33E2A2}"/>
+    <workbookView xWindow="0" yWindow="5160" windowWidth="40960" windowHeight="12000" xr2:uid="{24F3A499-F06E-3E44-802A-A6BEBE33E2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>timezone</t>
   </si>
@@ -155,9 +155,6 @@
     <t>timevirtual</t>
   </si>
   <si>
-    <t>yann@fb.com, yoshua.umontreal@gmail.com</t>
-  </si>
-  <si>
     <t>iclrconf+Walcott-Bryant@gmail.com</t>
   </si>
   <si>
@@ -186,6 +183,36 @@
   </si>
   <si>
     <t>panelists</t>
+  </si>
+  <si>
+    <t>alternate_webinar_hosts</t>
+  </si>
+  <si>
+    <t>yoshua.umontreal@gmail.com, yann@fb.com</t>
+  </si>
+  <si>
+    <t>Timnit Gebru &lt;tgebru@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Shakir Mohamed &lt;shakir.mohamed@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Kyunghyun Cho &lt;kyunghyun.cho@nyu.edu&gt;</t>
+  </si>
+  <si>
+    <t>Asja Fischer &lt;asja.fischer@rub.de&gt;</t>
+  </si>
+  <si>
+    <t>Martha White &lt;whitem@ualberta.ca&gt;</t>
+  </si>
+  <si>
+    <t>Gabriel Synnaeve &lt;gab@fb.com&gt;</t>
+  </si>
+  <si>
+    <t>Dawn Song &lt;dawnsong@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Alexander Rush &lt;sasha.rush@gmail.com&gt;</t>
   </si>
 </sst>
 </file>
@@ -551,26 +578,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F23E77-B365-D54F-8CA2-A01B6309C864}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="33.6640625" customWidth="1"/>
-    <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,22 +624,25 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -637,10 +668,13 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -666,10 +700,13 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -695,10 +732,13 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -724,10 +764,13 @@
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -753,10 +796,13 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -782,10 +828,13 @@
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -808,13 +857,16 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -840,11 +892,14 @@
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N9">
     <sortCondition ref="B2:B9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InvitedTalks.xlsx
+++ b/InvitedTalks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Sites/badgeserver.onsite/xltozoom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FEC3C1-64F8-9843-A9E9-D0FEDC038A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668CCBAC-52B3-A84D-9ED3-A05ADAB7FBBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5160" windowWidth="40960" windowHeight="12000" xr2:uid="{24F3A499-F06E-3E44-802A-A6BEBE33E2A2}"/>
+    <workbookView xWindow="-20" yWindow="9760" windowWidth="40960" windowHeight="12000" xr2:uid="{24F3A499-F06E-3E44-802A-A6BEBE33E2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,28 +191,28 @@
     <t>yoshua.umontreal@gmail.com, yann@fb.com</t>
   </si>
   <si>
-    <t>Timnit Gebru &lt;tgebru@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Shakir Mohamed &lt;shakir.mohamed@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Kyunghyun Cho &lt;kyunghyun.cho@nyu.edu&gt;</t>
-  </si>
-  <si>
-    <t>Asja Fischer &lt;asja.fischer@rub.de&gt;</t>
-  </si>
-  <si>
-    <t>Martha White &lt;whitem@ualberta.ca&gt;</t>
-  </si>
-  <si>
-    <t>Gabriel Synnaeve &lt;gab@fb.com&gt;</t>
-  </si>
-  <si>
-    <t>Dawn Song &lt;dawnsong@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Alexander Rush &lt;sasha.rush@gmail.com&gt;</t>
+    <t>Timnit Gebru &lt;tgebru+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Shakir Mohamed &lt;shakir.mohamed+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Kyunghyun Cho &lt;kyunghyun.cho+iclrzoom@nyu.edu&gt;</t>
+  </si>
+  <si>
+    <t>Asja Fischer &lt;asja.fischer+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Martha White &lt;whitem+iclrzoom@ualberta.ca&gt;</t>
+  </si>
+  <si>
+    <t>Gabriel Synnaeve &lt;gabriel.synnaeve+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Dawn Song &lt;dawnsong+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Alexander Rush &lt;sasha.rush+iclrzoom@gmail.com&gt;</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,7 +594,7 @@
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="33.6640625" customWidth="1"/>
     <col min="9" max="9" width="32.33203125" customWidth="1"/>
-    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="10" max="10" width="51.6640625" customWidth="1"/>
     <col min="11" max="11" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/InvitedTalks.xlsx
+++ b/InvitedTalks.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Sites/badgeserver.onsite/xltozoom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668CCBAC-52B3-A84D-9ED3-A05ADAB7FBBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A03DF-9054-0E41-8839-4CFDF1FFD945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="9760" windowWidth="40960" windowHeight="12000" xr2:uid="{24F3A499-F06E-3E44-802A-A6BEBE33E2A2}"/>
+    <workbookView xWindow="0" yWindow="9760" windowWidth="46260" windowHeight="12320" xr2:uid="{24F3A499-F06E-3E44-802A-A6BEBE33E2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="zoom user ids" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>timezone</t>
   </si>
@@ -179,9 +180,6 @@
     <t>iclrconf+Jordan@gmail.com</t>
   </si>
   <si>
-    <t>zoom_user_id</t>
-  </si>
-  <si>
     <t>panelists</t>
   </si>
   <si>
@@ -203,9 +201,6 @@
     <t>Asja Fischer &lt;asja.fischer+iclrzoom@gmail.com&gt;</t>
   </si>
   <si>
-    <t>Martha White &lt;whitem+iclrzoom@ualberta.ca&gt;</t>
-  </si>
-  <si>
     <t>Gabriel Synnaeve &lt;gabriel.synnaeve+iclrzoom@gmail.com&gt;</t>
   </si>
   <si>
@@ -213,6 +208,15 @@
   </si>
   <si>
     <t>Alexander Rush &lt;sasha.rush+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>Martha White &lt;iclrconf+mwhite@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>host_zoom_user_email</t>
+  </si>
+  <si>
+    <t>leetncamp+iclr@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -581,7 +585,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,13 +628,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -668,10 +672,10 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -700,10 +704,10 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -732,10 +736,10 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -764,10 +768,10 @@
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -796,10 +800,10 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -828,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -857,13 +861,13 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -892,10 +896,10 @@
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -905,4 +909,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEAF067-0895-594C-9B35-2F2C3DE8EFE9}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InvitedTalks.xlsx
+++ b/InvitedTalks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Sites/badgeserver.onsite/xltozoom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A03DF-9054-0E41-8839-4CFDF1FFD945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96F385F-DEB4-8E40-BC8E-946F240D03A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9760" windowWidth="46260" windowHeight="12320" xr2:uid="{24F3A499-F06E-3E44-802A-A6BEBE33E2A2}"/>
+    <workbookView xWindow="4200" yWindow="15900" windowWidth="39380" windowHeight="9100" xr2:uid="{24F3A499-F06E-3E44-802A-A6BEBE33E2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F23E77-B365-D54F-8CA2-A01B6309C864}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>

--- a/InvitedTalks.xlsx
+++ b/InvitedTalks.xlsx
@@ -8,33 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/Sites/badgeserver.onsite/xltozoom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96F385F-DEB4-8E40-BC8E-946F240D03A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F4CD6-ED8D-FE42-B740-13947877B7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="15900" windowWidth="39380" windowHeight="9100" xr2:uid="{24F3A499-F06E-3E44-802A-A6BEBE33E2A2}"/>
+    <workbookView xWindow="2200" yWindow="7540" windowWidth="46160" windowHeight="10720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="zoom user ids" sheetId="2" r:id="rId2"/>
+    <sheet name="Hold" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
   <si>
     <t>timezone</t>
   </si>
@@ -60,6 +48,18 @@
     <t>title</t>
   </si>
   <si>
+    <t>panelists</t>
+  </si>
+  <si>
+    <t>alternate_webinar_hosts</t>
+  </si>
+  <si>
+    <t>chair_password</t>
+  </si>
+  <si>
+    <t>host_zoom_user_email</t>
+  </si>
+  <si>
     <t>zoomid</t>
   </si>
   <si>
@@ -81,9 +81,120 @@
     <t>leveltree</t>
   </si>
   <si>
+    <t>Lee Test Invited Talk</t>
+  </si>
+  <si>
+    <t>lee@salk.edu</t>
+  </si>
+  <si>
+    <t>respond1</t>
+  </si>
+  <si>
+    <t>iclrconf+timnit@gmail.com</t>
+  </si>
+  <si>
+    <t>89738342240</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/89738342240?pwd=RmR3Mi9TbUt2SnVQNUdVZDUvTWZkZz09</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/s/89738342240?zak=eyJ6bV9za20iOiJ6bV9vMm0iLCJhbGciOiJIUzI1NiIsInR5cCI6IkpXVCJ9.eyJhdWQiOiJjbGllbnQiLCJ1aWQiOiJwZDFzSi1MeVJGU1N1WHRZdGRqNmFBIiwiaXNzIjoid2ViIiwic3R5IjoxMDAsIndjZCI6InVzMDIiLCJjbHQiOjAsInN0ayI6Ikl5eU1ZMDZoMnAyNXh1Rks3eWdHNGpjNnl4MEF6TUdld3VfZmQ1TF9fc0kuQmdVc2RYWXhTWEJwZGl0MFdYSk5WVkl6TlVkUGMzUkhXRUZ3Tm1KR1QwVnZRMnd3U0VGVmJFZ3JUVEJ5YnoxQU1ETTNaREJtTVRRNE9UQmpZMlV5WmpKaE4yTXhPRFppTURRNFl6UmhaamswT1RNNU5HVmxaVE5oTW1Sa09UUTBPRGMyWVdVME5tRXdaREkzTTJOaFlnQU1NME5DUVhWdmFWbFRNM005QUFSMWN6QXkiLCJleHAiOjE1ODc2MTY1NzksImlhdCI6MTU4NzYwOTM3OSwiYWlkIjoiYklySkdMcnBSTjJpX1VaUU5aaWlsdyIsImNpZCI6IiJ9.nFLVCAr4k4b3IUAyzj74p1f9riOt5WlPBWfncfFSS1Y</t>
+  </si>
+  <si>
     <t>AI + Africa = Global Innovation</t>
   </si>
   <si>
+    <t>awalcott@ke.ibm.com</t>
+  </si>
+  <si>
+    <t>monika@slideslive.com, hello@slideslive.com, jan@slideslive.com, jan.fischer@slideslive.com, kuba@slideslive.com, bao@slideslive.com, eugeniu@slideslive.com, elis@slideslive.com, daniela@slideslive.com, hello+review1@slideslive.com, hello+review2@slideslive.com, hello+review3@slideslive.com, hello+review4@slideslive.com, hello+review5@slideslive.com, hello+review6@slideslive.com, vojta.d@slideslive.com, martin@slideslive.com, helen@slideslive.com, vojta@slideslive.com, adela@slideslive.com, anastasia@slideslive.com, marcela@slideslive.com, monika+ai4ah@slideslive.com, monika+AI4EARTH@slideslive.com, monika+NAS@slideslive.com, monika+CV4A@slideslive.com, monika+PML4DC@slideslive.com, monika+BeTR-RL@slideslive.com, monika+CLDM@slideslive.com, monika+BAICS@slideslive.com, monika+CV4A@slideslive.com, monika+TML@slideslive.com, monika+DeepDiffeq@slideslive.com, monika+MLIRL@slideslive.com, monika+AfNLP@slideslive.com, monika+TCML@slideslive.com, monika+AI4CC@slideslive.com</t>
+  </si>
+  <si>
+    <t>Kaelbling</t>
+  </si>
+  <si>
+    <t>Doing for Our Robots What Nature Did For Us</t>
+  </si>
+  <si>
+    <t>lpk@csail.mit.edu</t>
+  </si>
+  <si>
+    <t>????????</t>
+  </si>
+  <si>
+    <t>shakir.mohamed+iclrzoom@gmail.com</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>whitewind</t>
+  </si>
+  <si>
+    <t>2020 Vision: Reimagining the Default Settings of Technology &amp; Society</t>
+  </si>
+  <si>
+    <t>ruha@princeton.edu</t>
+  </si>
+  <si>
+    <t>iclrconf+kyunghyun@gmail.com</t>
+  </si>
+  <si>
+    <t>Dinh</t>
+  </si>
+  <si>
+    <t>Invertible Models and Normalizing Flows</t>
+  </si>
+  <si>
+    <t>laurentdinh@google.com</t>
+  </si>
+  <si>
+    <t>iclrconf+asja@gmail.com</t>
+  </si>
+  <si>
+    <t>Schaar</t>
+  </si>
+  <si>
+    <t>alongvisible</t>
+  </si>
+  <si>
+    <t>Machine Learning: Changing the future of healthcare</t>
+  </si>
+  <si>
+    <t>mv472@damtp.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>iclrconf+martha@gmail.com</t>
+  </si>
+  <si>
+    <t>Parikh</t>
+  </si>
+  <si>
+    <t>AI Systems That Can See And Talk</t>
+  </si>
+  <si>
+    <t>parikh@gatech.edu</t>
+  </si>
+  <si>
+    <t>iclrconf+gabriel@gmail.com</t>
+  </si>
+  <si>
+    <t>LeCunBengio</t>
+  </si>
+  <si>
+    <t>timevirtual</t>
+  </si>
+  <si>
+    <t>Reflections from the Turing Award Winners</t>
+  </si>
+  <si>
+    <t>yoshua.umontreal@gmail.com, yann@fb.com</t>
+  </si>
+  <si>
+    <t>iclrconf+dawn@gmail.com</t>
+  </si>
+  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -93,130 +204,61 @@
     <t>jordan@cs.berkeley.edu</t>
   </si>
   <si>
-    <t>Reflections from the Turing Award Winners</t>
-  </si>
-  <si>
-    <t>Parikh</t>
-  </si>
-  <si>
-    <t>AI Systems That Can See And Talk</t>
-  </si>
-  <si>
-    <t>parikh@gatech.edu</t>
-  </si>
-  <si>
-    <t>Machine Learning: Changing the future of healthcare</t>
-  </si>
-  <si>
-    <t>mv472@damtp.cam.ac.uk</t>
-  </si>
-  <si>
-    <t>Dinh</t>
-  </si>
-  <si>
-    <t>Invertible Models and Normalizing Flows</t>
-  </si>
-  <si>
-    <t>laurentdinh@google.com</t>
-  </si>
-  <si>
-    <t>2020 Vision: Reimagining the Default Settings of Technology &amp; Society</t>
-  </si>
-  <si>
-    <t>ruha@princeton.edu</t>
-  </si>
-  <si>
-    <t>Kaelbling</t>
-  </si>
-  <si>
-    <t>Doing for Our Robots What Nature Did For Us</t>
-  </si>
-  <si>
-    <t>lpk@csail.mit.edu</t>
-  </si>
-  <si>
-    <t>awalcott@ke.ibm.com</t>
-  </si>
-  <si>
-    <t>LeCunBengio</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>Schaar</t>
-  </si>
-  <si>
-    <t>whitewind</t>
-  </si>
-  <si>
-    <t>alongvisible</t>
-  </si>
-  <si>
-    <t>timevirtual</t>
+    <t>iclrconf+sasha@gmail.com</t>
+  </si>
+  <si>
+    <t>zoom_user_id</t>
+  </si>
+  <si>
+    <t>Timnit Gebru &lt;tgebru+iclrzoom@gmail.com&gt;</t>
   </si>
   <si>
     <t>iclrconf+Walcott-Bryant@gmail.com</t>
   </si>
   <si>
+    <t>Shakir Mohamed &lt;shakir.mohamed+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
     <t>iclrconf+Kaelbling@gmail.com</t>
   </si>
   <si>
+    <t>Kyunghyun Cho &lt;kyunghyun.cho+iclrzoom@nyu.edu&gt;</t>
+  </si>
+  <si>
     <t>iclrconf+Benjamin@gmail.com</t>
   </si>
   <si>
+    <t>Asja Fischer &lt;asja.fischer+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
     <t>iclrconf+Dinh@gmail.com</t>
   </si>
   <si>
+    <t>Martha White &lt;whitem+iclrzoom@ualberta.ca&gt;</t>
+  </si>
+  <si>
     <t>iclrconf+Schaar@gmail.com</t>
   </si>
   <si>
+    <t>Gabriel Synnaeve &lt;gabriel.synnaeve+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
     <t>iclrconf+Parikh@gmail.com</t>
   </si>
   <si>
+    <t>Dawn Song &lt;dawnsong+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
     <t>iclrconf+LeCunBengio@gmail.com</t>
   </si>
   <si>
+    <t>Alexander Rush &lt;sasha.rush+iclrzoom@gmail.com&gt;</t>
+  </si>
+  <si>
     <t>iclrconf+Jordan@gmail.com</t>
   </si>
   <si>
-    <t>panelists</t>
-  </si>
-  <si>
-    <t>alternate_webinar_hosts</t>
-  </si>
-  <si>
-    <t>yoshua.umontreal@gmail.com, yann@fb.com</t>
-  </si>
-  <si>
-    <t>Timnit Gebru &lt;tgebru+iclrzoom@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Shakir Mohamed &lt;shakir.mohamed+iclrzoom@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Kyunghyun Cho &lt;kyunghyun.cho+iclrzoom@nyu.edu&gt;</t>
-  </si>
-  <si>
-    <t>Asja Fischer &lt;asja.fischer+iclrzoom@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Gabriel Synnaeve &lt;gabriel.synnaeve+iclrzoom@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Dawn Song &lt;dawnsong+iclrzoom@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Alexander Rush &lt;sasha.rush+iclrzoom@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Martha White &lt;iclrconf+mwhite@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>host_zoom_user_email</t>
-  </si>
-  <si>
-    <t>leetncamp+iclr@gmail.com</t>
+    <t>brockmeyer+iclrzoom@snl.salk.edu, leetncamp@live.com, terrence.gaines@hp.com</t>
   </si>
 </sst>
 </file>
@@ -581,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F23E77-B365-D54F-8CA2-A01B6309C864}">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,11 +640,12 @@
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="33.6640625" customWidth="1"/>
     <col min="9" max="9" width="32.33203125" customWidth="1"/>
-    <col min="10" max="10" width="51.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" customWidth="1"/>
+    <col min="10" max="10" width="58.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,337 +671,504 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>43948.583333333336</v>
+        <v>43948.583333333343</v>
       </c>
       <c r="C2" s="2">
         <v>43948.625</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43948.791666666664</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43948.833333333328</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43949.583333333336</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43949.625</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43949.791666666664</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43949.833333333328</v>
-      </c>
-      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43950.458333333336</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43950.5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43950.666666666664</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43950.708333333328</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43951.666666666664</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43951.708333333328</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43951.791666666664</v>
-      </c>
-      <c r="C9" s="2">
-        <v>43951.833333333328</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N9">
-    <sortCondition ref="B2:B9"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEAF067-0895-594C-9B35-2F2C3DE8EFE9}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43948.583333333343</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43948.625</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43948.791666666657</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43948.833333333343</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43949.583333333343</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43949.625</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43949.791666666657</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43949.833333333343</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43950.458333333343</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43950.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43950.666666666657</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43950.708333333343</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43951.666666666657</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43951.708333333343</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43951.791666666657</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43951.833333333343</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
